--- a/BERAS.xlsx
+++ b/BERAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maynard Dias\Documents\k;\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AE628E-1BCF-4188-84F2-8AED4402F598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50C5AF-8E98-437E-954C-B7AD34C0E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,13 +460,13 @@
         <v>2010</v>
       </c>
       <c r="B2" s="4">
+        <v>241.8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>33189891</v>
+      </c>
+      <c r="D2" s="4">
         <v>209127.8</v>
-      </c>
-      <c r="C2" s="4">
-        <v>241.8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>33189891</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -474,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="B3" s="4">
+        <v>245.1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>33673006</v>
+      </c>
+      <c r="D3" s="4">
         <v>938695.7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>245.1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>33673006</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="B4" s="4">
+        <v>248.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>34150917</v>
+      </c>
+      <c r="D4" s="4">
         <v>315352.7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>248.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>34150917</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -502,13 +502,13 @@
         <v>2013</v>
       </c>
       <c r="B5" s="4">
+        <v>251.8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34623039</v>
+      </c>
+      <c r="D5" s="4">
         <v>94633.9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>251.8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>34623039</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -516,13 +516,13 @@
         <v>2014</v>
       </c>
       <c r="B6" s="4">
+        <v>255.1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>31268435</v>
+      </c>
+      <c r="D6" s="4">
         <v>366203.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>255.1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>31268435</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -530,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="B7" s="4">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>33144541</v>
+      </c>
+      <c r="D7" s="4">
         <v>126745.7</v>
-      </c>
-      <c r="C7" s="4">
-        <v>258.39999999999998</v>
-      </c>
-      <c r="D7" s="4">
-        <v>33144541</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -544,13 +544,13 @@
         <v>2016</v>
       </c>
       <c r="B8" s="4">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>33470000</v>
+      </c>
+      <c r="D8" s="4">
         <v>557890</v>
-      </c>
-      <c r="C8" s="4">
-        <v>261.60000000000002</v>
-      </c>
-      <c r="D8" s="4">
-        <v>33470000</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -558,13 +558,13 @@
         <v>2017</v>
       </c>
       <c r="B9" s="4">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>29130000</v>
+      </c>
+      <c r="D9" s="4">
         <v>108944.8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>264.60000000000002</v>
-      </c>
-      <c r="D9" s="4">
-        <v>29130000</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -572,13 +572,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="4">
+        <v>265</v>
+      </c>
+      <c r="C10" s="4">
+        <v>26300000</v>
+      </c>
+      <c r="D10" s="4">
         <v>795600.1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>265</v>
-      </c>
-      <c r="D10" s="4">
-        <v>26300000</v>
       </c>
       <c r="O10" s="1"/>
       <c r="Z10" s="2"/>
@@ -588,13 +588,13 @@
         <v>2019</v>
       </c>
       <c r="B11" s="4">
+        <v>267</v>
+      </c>
+      <c r="C11" s="4">
+        <v>31310000</v>
+      </c>
+      <c r="D11" s="4">
         <v>53278</v>
-      </c>
-      <c r="C11" s="4">
-        <v>267</v>
-      </c>
-      <c r="D11" s="4">
-        <v>31310000</v>
       </c>
       <c r="O11" s="1"/>
       <c r="Z11" s="2"/>
